--- a/data/trans_orig/RUIDO_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59703B60-A0ED-44C1-A22D-7479C79879A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{961C4212-D5AF-4196-B944-A4C04BDCD1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2199EDC1-D1A3-4912-AEE0-778C92AF4701}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8935BA9E-1ECA-48E8-97A9-08E05D5CF3E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="408">
   <si>
     <t>Población según los motivos por los que no pagaría para realizar actuaciones que reduzcan el ruido en su municipio o lugar de residencia en 2023 (Tasa respuesta: 39,63%)</t>
   </si>
@@ -71,1195 +71,1192 @@
     <t>Otro motivo</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>No puedo permitírmelo (económicamente)</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>Ya pago demasiados impuestos</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>No me siento responsable del ruido</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
   </si>
   <si>
     <t>13,05%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>No puedo permitírmelo (económicamente)</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>Ya pago demasiados impuestos</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>No me siento responsable del ruido</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>13,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1674,7 +1671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A08FE8-17C3-4D4B-81D5-15E78CA950E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4ED1F1-C2E4-4923-A557-8CFFE8D17BC7}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1795,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>4560</v>
+        <v>6417</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1810,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1086</v>
+        <v>1129</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1825,7 +1822,7 @@
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>5646</v>
+        <v>7546</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1846,7 +1843,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="7">
-        <v>17683</v>
+        <v>19630</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1861,7 +1858,7 @@
         <v>96</v>
       </c>
       <c r="I5" s="7">
-        <v>47244</v>
+        <v>50450</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1876,7 +1873,7 @@
         <v>134</v>
       </c>
       <c r="N5" s="7">
-        <v>64927</v>
+        <v>70080</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1897,7 +1894,7 @@
         <v>76</v>
       </c>
       <c r="D6" s="7">
-        <v>59925</v>
+        <v>68162</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1912,7 +1909,7 @@
         <v>119</v>
       </c>
       <c r="I6" s="7">
-        <v>62227</v>
+        <v>65799</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1927,7 +1924,7 @@
         <v>195</v>
       </c>
       <c r="N6" s="7">
-        <v>122153</v>
+        <v>133961</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1948,7 +1945,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>18366</v>
+        <v>21610</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1963,7 +1960,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>12087</v>
+        <v>12562</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1978,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="N7" s="7">
-        <v>30453</v>
+        <v>34172</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1999,7 +1996,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>8774</v>
+        <v>9708</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -2014,7 +2011,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="7">
-        <v>8316</v>
+        <v>8596</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -2029,7 +2026,7 @@
         <v>29</v>
       </c>
       <c r="N8" s="7">
-        <v>17090</v>
+        <v>18304</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -2050,7 +2047,7 @@
         <v>148</v>
       </c>
       <c r="D9" s="7">
-        <v>109309</v>
+        <v>125527</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -2065,7 +2062,7 @@
         <v>259</v>
       </c>
       <c r="I9" s="7">
-        <v>130960</v>
+        <v>138536</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -2080,7 +2077,7 @@
         <v>407</v>
       </c>
       <c r="N9" s="7">
-        <v>240269</v>
+        <v>264063</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -2103,7 +2100,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>38553</v>
+        <v>39245</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2118,7 +2115,7 @@
         <v>60</v>
       </c>
       <c r="I10" s="7">
-        <v>45581</v>
+        <v>42686</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -2133,16 +2130,16 @@
         <v>84</v>
       </c>
       <c r="N10" s="7">
-        <v>84134</v>
+        <v>81931</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,46 +2151,46 @@
         <v>60</v>
       </c>
       <c r="D11" s="7">
-        <v>82071</v>
+        <v>81933</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>128</v>
       </c>
       <c r="I11" s="7">
-        <v>89491</v>
+        <v>82999</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>188</v>
       </c>
       <c r="N11" s="7">
-        <v>171562</v>
+        <v>164932</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,46 +2202,46 @@
         <v>58</v>
       </c>
       <c r="D12" s="7">
-        <v>73175</v>
+        <v>70328</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>58</v>
       </c>
       <c r="I12" s="7">
-        <v>45796</v>
+        <v>42367</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>116</v>
       </c>
       <c r="N12" s="7">
-        <v>118971</v>
+        <v>112695</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,46 +2253,46 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>3255</v>
+        <v>3342</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>6774</v>
+        <v>6213</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>10029</v>
+        <v>9555</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,46 +2304,46 @@
         <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>9564</v>
+        <v>9678</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
       </c>
       <c r="I14" s="7">
-        <v>13045</v>
+        <v>12090</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
       </c>
       <c r="N14" s="7">
-        <v>22608</v>
+        <v>21768</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,7 +2355,7 @@
         <v>151</v>
       </c>
       <c r="D15" s="7">
-        <v>206618</v>
+        <v>204526</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -2373,7 +2370,7 @@
         <v>274</v>
       </c>
       <c r="I15" s="7">
-        <v>200687</v>
+        <v>186355</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -2388,7 +2385,7 @@
         <v>425</v>
       </c>
       <c r="N15" s="7">
-        <v>407305</v>
+        <v>390881</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2402,7 +2399,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2411,22 +2408,22 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>8546</v>
+        <v>8332</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>9614</v>
+        <v>8911</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -2441,7 +2438,7 @@
         <v>24</v>
       </c>
       <c r="N16" s="7">
-        <v>18161</v>
+        <v>17244</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -2462,7 +2459,7 @@
         <v>58</v>
       </c>
       <c r="D17" s="7">
-        <v>42901</v>
+        <v>41303</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>116</v>
@@ -2477,7 +2474,7 @@
         <v>88</v>
       </c>
       <c r="I17" s="7">
-        <v>55783</v>
+        <v>52021</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>119</v>
@@ -2492,7 +2489,7 @@
         <v>146</v>
       </c>
       <c r="N17" s="7">
-        <v>98684</v>
+        <v>93324</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>122</v>
@@ -2513,7 +2510,7 @@
         <v>66</v>
       </c>
       <c r="D18" s="7">
-        <v>60303</v>
+        <v>59777</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>125</v>
@@ -2528,7 +2525,7 @@
         <v>78</v>
       </c>
       <c r="I18" s="7">
-        <v>49367</v>
+        <v>45888</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>128</v>
@@ -2543,7 +2540,7 @@
         <v>144</v>
       </c>
       <c r="N18" s="7">
-        <v>109669</v>
+        <v>105664</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>131</v>
@@ -2564,7 +2561,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>10500</v>
+        <v>10107</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>134</v>
@@ -2579,7 +2576,7 @@
         <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>11138</v>
+        <v>10451</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>137</v>
@@ -2594,7 +2591,7 @@
         <v>29</v>
       </c>
       <c r="N19" s="7">
-        <v>21638</v>
+        <v>20558</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>140</v>
@@ -2615,7 +2612,7 @@
         <v>28</v>
       </c>
       <c r="D20" s="7">
-        <v>22175</v>
+        <v>21443</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>143</v>
@@ -2630,7 +2627,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="7">
-        <v>20480</v>
+        <v>19322</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>146</v>
@@ -2645,7 +2642,7 @@
         <v>60</v>
       </c>
       <c r="N20" s="7">
-        <v>42655</v>
+        <v>40765</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>149</v>
@@ -2666,7 +2663,7 @@
         <v>174</v>
       </c>
       <c r="D21" s="7">
-        <v>144425</v>
+        <v>140962</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2681,7 +2678,7 @@
         <v>229</v>
       </c>
       <c r="I21" s="7">
-        <v>146381</v>
+        <v>136593</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2696,7 +2693,7 @@
         <v>403</v>
       </c>
       <c r="N21" s="7">
-        <v>290806</v>
+        <v>277555</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -2719,7 +2716,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="7">
-        <v>31488</v>
+        <v>33153</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>153</v>
@@ -2734,7 +2731,7 @@
         <v>63</v>
       </c>
       <c r="I22" s="7">
-        <v>44189</v>
+        <v>40879</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>156</v>
@@ -2749,7 +2746,7 @@
         <v>90</v>
       </c>
       <c r="N22" s="7">
-        <v>75677</v>
+        <v>74031</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>159</v>
@@ -2770,7 +2767,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="7">
-        <v>23750</v>
+        <v>21735</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>162</v>
@@ -2785,31 +2782,31 @@
         <v>56</v>
       </c>
       <c r="I23" s="7">
-        <v>37049</v>
+        <v>34673</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>79</v>
       </c>
       <c r="N23" s="7">
-        <v>60799</v>
+        <v>56408</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,46 +2818,46 @@
         <v>28</v>
       </c>
       <c r="D24" s="7">
-        <v>34252</v>
+        <v>33042</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
       </c>
       <c r="I24" s="7">
-        <v>24329</v>
+        <v>22533</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>68</v>
       </c>
       <c r="N24" s="7">
-        <v>58581</v>
+        <v>55574</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,46 +2869,46 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>2099</v>
+        <v>2011</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>8674</v>
+        <v>7642</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
       </c>
       <c r="N25" s="7">
-        <v>10772</v>
+        <v>9653</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,46 +2920,46 @@
         <v>40</v>
       </c>
       <c r="D26" s="7">
-        <v>32939</v>
+        <v>32029</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>75</v>
       </c>
       <c r="I26" s="7">
-        <v>45273</v>
+        <v>42131</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>115</v>
       </c>
       <c r="N26" s="7">
-        <v>78212</v>
+        <v>74160</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,7 +2971,7 @@
         <v>122</v>
       </c>
       <c r="D27" s="7">
-        <v>124528</v>
+        <v>121969</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2989,7 +2986,7 @@
         <v>244</v>
       </c>
       <c r="I27" s="7">
-        <v>159513</v>
+        <v>147857</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3004,7 +3001,7 @@
         <v>366</v>
       </c>
       <c r="N27" s="7">
-        <v>284041</v>
+        <v>269826</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3018,7 +3015,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3027,46 +3024,46 @@
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>1442</v>
+        <v>1258</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
       </c>
       <c r="I28" s="7">
-        <v>2065</v>
+        <v>1906</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
       </c>
       <c r="N28" s="7">
-        <v>3507</v>
+        <v>3164</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,46 +3075,46 @@
         <v>18</v>
       </c>
       <c r="D29" s="7">
-        <v>11536</v>
+        <v>10562</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>61</v>
       </c>
       <c r="I29" s="7">
-        <v>26535</v>
+        <v>23972</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>79</v>
       </c>
       <c r="N29" s="7">
-        <v>38071</v>
+        <v>34534</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,46 +3126,46 @@
         <v>46</v>
       </c>
       <c r="D30" s="7">
-        <v>32956</v>
+        <v>29826</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>79</v>
       </c>
       <c r="I30" s="7">
-        <v>41766</v>
+        <v>36961</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>125</v>
       </c>
       <c r="N30" s="7">
-        <v>74721</v>
+        <v>66787</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,16 +3177,16 @@
         <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>1437</v>
+        <v>1296</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3198,28 +3195,28 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>1437</v>
+        <v>1296</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,46 +3228,46 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>1310</v>
+        <v>1203</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>904</v>
+        <v>820</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
       </c>
       <c r="N32" s="7">
-        <v>2214</v>
+        <v>2023</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,7 +3279,7 @@
         <v>69</v>
       </c>
       <c r="D33" s="7">
-        <v>48681</v>
+        <v>44145</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -3297,7 +3294,7 @@
         <v>146</v>
       </c>
       <c r="I33" s="7">
-        <v>71270</v>
+        <v>63660</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -3312,7 +3309,7 @@
         <v>215</v>
       </c>
       <c r="N33" s="7">
-        <v>119951</v>
+        <v>107804</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -3326,7 +3323,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3335,25 +3332,25 @@
         <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>2814</v>
+        <v>2739</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>2416</v>
+        <v>2265</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>238</v>
@@ -3365,7 +3362,7 @@
         <v>8</v>
       </c>
       <c r="N34" s="7">
-        <v>5229</v>
+        <v>5004</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>240</v>
@@ -3386,7 +3383,7 @@
         <v>52</v>
       </c>
       <c r="D35" s="7">
-        <v>36066</v>
+        <v>35451</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>243</v>
@@ -3401,7 +3398,7 @@
         <v>82</v>
       </c>
       <c r="I35" s="7">
-        <v>40932</v>
+        <v>38470</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>246</v>
@@ -3416,7 +3413,7 @@
         <v>134</v>
       </c>
       <c r="N35" s="7">
-        <v>76998</v>
+        <v>73921</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>249</v>
@@ -3437,7 +3434,7 @@
         <v>68</v>
       </c>
       <c r="D36" s="7">
-        <v>55341</v>
+        <v>54325</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>252</v>
@@ -3452,7 +3449,7 @@
         <v>84</v>
       </c>
       <c r="I36" s="7">
-        <v>58132</v>
+        <v>54267</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>255</v>
@@ -3467,7 +3464,7 @@
         <v>152</v>
       </c>
       <c r="N36" s="7">
-        <v>113473</v>
+        <v>108592</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>258</v>
@@ -3488,7 +3485,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="7">
-        <v>5771</v>
+        <v>5589</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>261</v>
@@ -3503,28 +3500,28 @@
         <v>11</v>
       </c>
       <c r="I37" s="7">
-        <v>5927</v>
+        <v>5501</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>20</v>
       </c>
       <c r="N37" s="7">
-        <v>11698</v>
+        <v>11090</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>268</v>
@@ -3539,7 +3536,7 @@
         <v>19</v>
       </c>
       <c r="D38" s="7">
-        <v>15319</v>
+        <v>14744</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>269</v>
@@ -3554,7 +3551,7 @@
         <v>28</v>
       </c>
       <c r="I38" s="7">
-        <v>16147</v>
+        <v>14876</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>272</v>
@@ -3569,16 +3566,16 @@
         <v>47</v>
       </c>
       <c r="N38" s="7">
-        <v>31466</v>
+        <v>29620</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>275</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>56</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,7 +3587,7 @@
         <v>152</v>
       </c>
       <c r="D39" s="7">
-        <v>115311</v>
+        <v>112848</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -3605,7 +3602,7 @@
         <v>209</v>
       </c>
       <c r="I39" s="7">
-        <v>123553</v>
+        <v>115380</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -3620,7 +3617,7 @@
         <v>361</v>
       </c>
       <c r="N39" s="7">
-        <v>238864</v>
+        <v>228227</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -3634,7 +3631,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3643,46 +3640,46 @@
         <v>23</v>
       </c>
       <c r="D40" s="7">
-        <v>33399</v>
+        <v>34628</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H40" s="7">
         <v>35</v>
       </c>
       <c r="I40" s="7">
-        <v>24870</v>
+        <v>22901</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M40" s="7">
         <v>58</v>
       </c>
       <c r="N40" s="7">
-        <v>58269</v>
+        <v>57529</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,46 +3691,46 @@
         <v>37</v>
       </c>
       <c r="D41" s="7">
-        <v>34010</v>
+        <v>32700</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H41" s="7">
         <v>85</v>
       </c>
       <c r="I41" s="7">
-        <v>165676</v>
+        <v>254847</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M41" s="7">
         <v>122</v>
       </c>
       <c r="N41" s="7">
-        <v>199685</v>
+        <v>287547</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,46 +3742,46 @@
         <v>96</v>
       </c>
       <c r="D42" s="7">
-        <v>96762</v>
+        <v>98192</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H42" s="7">
         <v>140</v>
       </c>
       <c r="I42" s="7">
-        <v>99454</v>
+        <v>92540</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M42" s="7">
         <v>236</v>
       </c>
       <c r="N42" s="7">
-        <v>196216</v>
+        <v>190732</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,28 +3793,28 @@
         <v>23</v>
       </c>
       <c r="D43" s="7">
-        <v>27010</v>
+        <v>26131</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H43" s="7">
         <v>39</v>
       </c>
       <c r="I43" s="7">
-        <v>31461</v>
+        <v>29216</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>309</v>
+        <v>231</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>310</v>
@@ -3826,7 +3823,7 @@
         <v>62</v>
       </c>
       <c r="N43" s="7">
-        <v>58471</v>
+        <v>55347</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>311</v>
@@ -3847,7 +3844,7 @@
         <v>21</v>
       </c>
       <c r="D44" s="7">
-        <v>20361</v>
+        <v>19939</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>314</v>
@@ -3862,7 +3859,7 @@
         <v>28</v>
       </c>
       <c r="I44" s="7">
-        <v>16462</v>
+        <v>15442</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>317</v>
@@ -3877,7 +3874,7 @@
         <v>49</v>
       </c>
       <c r="N44" s="7">
-        <v>36823</v>
+        <v>35381</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>320</v>
@@ -3898,7 +3895,7 @@
         <v>200</v>
       </c>
       <c r="D45" s="7">
-        <v>211542</v>
+        <v>211591</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>60</v>
@@ -3913,7 +3910,7 @@
         <v>327</v>
       </c>
       <c r="I45" s="7">
-        <v>337923</v>
+        <v>414945</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>60</v>
@@ -3928,7 +3925,7 @@
         <v>527</v>
       </c>
       <c r="N45" s="7">
-        <v>549464</v>
+        <v>626536</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -3951,13 +3948,13 @@
         <v>2</v>
       </c>
       <c r="D46" s="7">
-        <v>3136</v>
+        <v>2681</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>324</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>325</v>
@@ -3966,13 +3963,13 @@
         <v>2</v>
       </c>
       <c r="I46" s="7">
-        <v>1006</v>
+        <v>864</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>326</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>327</v>
@@ -3981,16 +3978,16 @@
         <v>4</v>
       </c>
       <c r="N46" s="7">
-        <v>4142</v>
+        <v>3545</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>198</v>
+        <v>328</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,46 +3999,46 @@
         <v>42</v>
       </c>
       <c r="D47" s="7">
-        <v>47482</v>
+        <v>40029</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H47" s="7">
         <v>78</v>
       </c>
       <c r="I47" s="7">
-        <v>69074</v>
+        <v>55574</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M47" s="7">
         <v>120</v>
       </c>
       <c r="N47" s="7">
-        <v>116556</v>
+        <v>95603</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,46 +4050,46 @@
         <v>88</v>
       </c>
       <c r="D48" s="7">
-        <v>87742</v>
+        <v>74724</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H48" s="7">
         <v>109</v>
       </c>
       <c r="I48" s="7">
-        <v>84231</v>
+        <v>70381</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M48" s="7">
         <v>197</v>
       </c>
       <c r="N48" s="7">
-        <v>171972</v>
+        <v>145105</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,46 +4101,46 @@
         <v>129</v>
       </c>
       <c r="D49" s="7">
-        <v>135864</v>
+        <v>114344</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H49" s="7">
         <v>153</v>
       </c>
       <c r="I49" s="7">
-        <v>122465</v>
+        <v>101991</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M49" s="7">
         <v>282</v>
       </c>
       <c r="N49" s="7">
-        <v>258329</v>
+        <v>216335</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,46 +4152,46 @@
         <v>59</v>
       </c>
       <c r="D50" s="7">
-        <v>57026</v>
+        <v>48304</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H50" s="7">
         <v>99</v>
       </c>
       <c r="I50" s="7">
-        <v>84366</v>
+        <v>68878</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M50" s="7">
         <v>158</v>
       </c>
       <c r="N50" s="7">
-        <v>141391</v>
+        <v>117183</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,7 +4203,7 @@
         <v>320</v>
       </c>
       <c r="D51" s="7">
-        <v>331249</v>
+        <v>280082</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>60</v>
@@ -4221,7 +4218,7 @@
         <v>441</v>
       </c>
       <c r="I51" s="7">
-        <v>361142</v>
+        <v>297689</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>60</v>
@@ -4236,7 +4233,7 @@
         <v>761</v>
       </c>
       <c r="N51" s="7">
-        <v>692391</v>
+        <v>577771</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>60</v>
@@ -4259,46 +4256,46 @@
         <v>93</v>
       </c>
       <c r="D52" s="7">
-        <v>123938</v>
+        <v>128454</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H52" s="7">
         <v>186</v>
       </c>
       <c r="I52" s="7">
-        <v>130826</v>
+        <v>121541</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>369</v>
+        <v>147</v>
       </c>
       <c r="M52" s="7">
         <v>279</v>
       </c>
       <c r="N52" s="7">
-        <v>254764</v>
+        <v>249995</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,46 +4307,46 @@
         <v>328</v>
       </c>
       <c r="D53" s="7">
-        <v>295499</v>
+        <v>283343</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H53" s="7">
         <v>674</v>
       </c>
       <c r="I53" s="7">
-        <v>531785</v>
+        <v>593006</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M53" s="7">
         <v>1002</v>
       </c>
       <c r="N53" s="7">
-        <v>827284</v>
+        <v>876349</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,46 +4358,46 @@
         <v>526</v>
       </c>
       <c r="D54" s="7">
-        <v>500455</v>
+        <v>488377</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H54" s="7">
         <v>707</v>
       </c>
       <c r="I54" s="7">
-        <v>465302</v>
+        <v>430735</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M54" s="7">
         <v>1233</v>
       </c>
       <c r="N54" s="7">
-        <v>965757</v>
+        <v>919112</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,46 +4409,46 @@
         <v>201</v>
       </c>
       <c r="D55" s="7">
-        <v>204302</v>
+        <v>184430</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H55" s="7">
         <v>263</v>
       </c>
       <c r="I55" s="7">
-        <v>198526</v>
+        <v>173576</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>395</v>
+        <v>205</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M55" s="7">
         <v>464</v>
       </c>
       <c r="N55" s="7">
-        <v>402828</v>
+        <v>358005</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,46 +4460,46 @@
         <v>188</v>
       </c>
       <c r="D56" s="7">
-        <v>167468</v>
+        <v>157048</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H56" s="7">
         <v>299</v>
       </c>
       <c r="I56" s="7">
-        <v>204991</v>
+        <v>182156</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>404</v>
+        <v>313</v>
       </c>
       <c r="M56" s="7">
         <v>487</v>
       </c>
       <c r="N56" s="7">
-        <v>372459</v>
+        <v>339203</v>
       </c>
       <c r="O56" s="7" t="s">
         <v>405</v>
       </c>
       <c r="P56" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,7 +4511,7 @@
         <v>1336</v>
       </c>
       <c r="D57" s="7">
-        <v>1291663</v>
+        <v>1241651</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>60</v>
@@ -4529,7 +4526,7 @@
         <v>2129</v>
       </c>
       <c r="I57" s="7">
-        <v>1531429</v>
+        <v>1501014</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>60</v>
@@ -4544,7 +4541,7 @@
         <v>3465</v>
       </c>
       <c r="N57" s="7">
-        <v>2823092</v>
+        <v>2742665</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>60</v>
@@ -4558,7 +4555,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
